--- a/output/Transitions Rule/facility_data/transition_rule_facility_demographics_3mi.xlsx
+++ b/output/Transitions Rule/facility_data/transition_rule_facility_demographics_3mi.xlsx
@@ -591,7 +591,7 @@
         <v>14.2254707164624</v>
       </c>
       <c r="R2" t="n">
-        <v>40.5555555555556</v>
+        <v>44.4444444444444</v>
       </c>
       <c r="S2" t="n">
         <v>0.505555555555556</v>
@@ -653,7 +653,7 @@
         <v>50</v>
       </c>
       <c r="S3" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4">
@@ -707,10 +707,10 @@
         <v>5.03229217601841</v>
       </c>
       <c r="R4" t="n">
-        <v>38.2894736842105</v>
+        <v>30</v>
       </c>
       <c r="S4" t="n">
-        <v>0.444736842105263</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="5">
@@ -764,10 +764,10 @@
         <v>12.3343544086988</v>
       </c>
       <c r="R5" t="n">
-        <v>30</v>
+        <v>29.7674418604651</v>
       </c>
       <c r="S5" t="n">
-        <v>0.497674418604651</v>
+        <v>0.354651162790698</v>
       </c>
     </row>
     <row r="6">
@@ -821,10 +821,10 @@
         <v>2.94731126966235</v>
       </c>
       <c r="R6" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="S6" t="n">
-        <v>0.32</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="7">
@@ -880,10 +880,10 @@
         <v>13.897701347952</v>
       </c>
       <c r="R7" t="n">
-        <v>30</v>
+        <v>21.2307692307692</v>
       </c>
       <c r="S7" t="n">
-        <v>0.364615384615385</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="8">
@@ -998,10 +998,10 @@
         <v>4.76903621594129</v>
       </c>
       <c r="R9" t="n">
-        <v>87.5</v>
+        <v>65</v>
       </c>
       <c r="S9" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="10">
@@ -1057,10 +1057,10 @@
         <v>2.87256612619637</v>
       </c>
       <c r="R10" t="n">
-        <v>128.75</v>
+        <v>62.5</v>
       </c>
       <c r="S10" t="n">
-        <v>0.5375</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="11">
@@ -1114,10 +1114,10 @@
         <v>21.1990327607574</v>
       </c>
       <c r="R11" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="S11" t="n">
-        <v>0.5</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="12">
@@ -1174,7 +1174,7 @@
         <v>30</v>
       </c>
       <c r="S12" t="n">
-        <v>0.36</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="13">
@@ -1230,10 +1230,10 @@
         <v>14.4631067590132</v>
       </c>
       <c r="R13" t="n">
-        <v>42.1052631578947</v>
+        <v>47.8947368421053</v>
       </c>
       <c r="S13" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="14">
@@ -1289,10 +1289,10 @@
         <v>3.89252789332616</v>
       </c>
       <c r="R14" t="n">
-        <v>20</v>
+        <v>19.0909090909091</v>
       </c>
       <c r="S14" t="n">
-        <v>0.209090909090909</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="15">
@@ -1349,7 +1349,7 @@
         <v>30</v>
       </c>
       <c r="S15" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
   </sheetData>
